--- a/Essential Statistics for Data Analysis using Excel/Module1QuizFiles/Module 1_Quiz Data_Income.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1QuizFiles/Module 1_Quiz Data_Income.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CertTFS\Online-Content\Courses\ENG\DAT222x - Essential Statistics for Data Analysis using Excel\Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1QuizFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11978"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -33,6 +36,18 @@
   </si>
   <si>
     <t>Mean in 2015 dollars</t>
+  </si>
+  <si>
+    <t>Sum of Median in 2015 dollars</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Mean in 2015 dollars</t>
   </si>
 </sst>
 </file>
@@ -93,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -104,42 +119,17 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
       <fill>
@@ -184,13 +174,1275 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Module 1_Quiz Data_Income.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Median in 2015 dollars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D9C-4E66-99F4-45AE565E9495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Mean in 2015 dollars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D9C-4E66-99F4-45AE565E9495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="361591368"/>
+        <c:axId val="361592352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="361591368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361592352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361592352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361591368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490536</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE20B70-AE1A-4C31-BE30-F188F8B52832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42900.26800300926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2007" maxValue="2014" count="8">
+        <n v="2014"/>
+        <n v="2013"/>
+        <n v="2012"/>
+        <n v="2011"/>
+        <n v="2010"/>
+        <n v="2009"/>
+        <n v="2008"/>
+        <n v="2007"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Median in 2015 dollars" numFmtId="42">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52666" maxValue="57423" count="8">
+        <n v="53719"/>
+        <n v="54525"/>
+        <n v="52666"/>
+        <n v="52751"/>
+        <n v="53568"/>
+        <n v="54988"/>
+        <n v="55376"/>
+        <n v="57423"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mean in 2015 dollars" numFmtId="42">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="73262" maxValue="77286" count="8">
+        <n v="77286"/>
+        <n v="76513"/>
+        <n v="75825"/>
+        <n v="75325"/>
+        <n v="75093"/>
+        <n v="73577"/>
+        <n v="73431"/>
+        <n v="73262"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E4:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="42" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="42" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Median in 2015 dollars" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Mean in 2015 dollars" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C11" totalsRowShown="0">
   <autoFilter ref="A3:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Median in 2015 dollars" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="Mean in 2015 dollars" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Median in 2015 dollars" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="3" name="Mean in 2015 dollars" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -493,19 +1745,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -526,8 +1781,17 @@
       <c r="C4" s="3">
         <v>77286</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -537,8 +1801,17 @@
       <c r="C5" s="3">
         <v>76513</v>
       </c>
+      <c r="E5" s="6">
+        <v>2007</v>
+      </c>
+      <c r="F5" s="4">
+        <v>57423</v>
+      </c>
+      <c r="G5" s="4">
+        <v>73262</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -548,8 +1821,17 @@
       <c r="C6" s="3">
         <v>75825</v>
       </c>
+      <c r="E6" s="6">
+        <v>2008</v>
+      </c>
+      <c r="F6" s="4">
+        <v>55376</v>
+      </c>
+      <c r="G6" s="4">
+        <v>73431</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -559,8 +1841,17 @@
       <c r="C7" s="3">
         <v>75325</v>
       </c>
+      <c r="E7" s="6">
+        <v>2009</v>
+      </c>
+      <c r="F7" s="4">
+        <v>54988</v>
+      </c>
+      <c r="G7" s="4">
+        <v>73577</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -570,8 +1861,17 @@
       <c r="C8" s="3">
         <v>75093</v>
       </c>
+      <c r="E8" s="6">
+        <v>2010</v>
+      </c>
+      <c r="F8" s="4">
+        <v>53568</v>
+      </c>
+      <c r="G8" s="4">
+        <v>75093</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -581,8 +1881,17 @@
       <c r="C9" s="3">
         <v>73577</v>
       </c>
+      <c r="E9" s="6">
+        <v>2011</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52751</v>
+      </c>
+      <c r="G9" s="4">
+        <v>75325</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -592,8 +1901,17 @@
       <c r="C10" s="3">
         <v>73431</v>
       </c>
+      <c r="E10" s="6">
+        <v>2012</v>
+      </c>
+      <c r="F10" s="4">
+        <v>52666</v>
+      </c>
+      <c r="G10" s="4">
+        <v>75825</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -602,13 +1920,45 @@
       </c>
       <c r="C11" s="3">
         <v>73262</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2013</v>
+      </c>
+      <c r="F11" s="4">
+        <v>54525</v>
+      </c>
+      <c r="G11" s="4">
+        <v>76513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <v>2014</v>
+      </c>
+      <c r="F12" s="4">
+        <v>53719</v>
+      </c>
+      <c r="G12" s="4">
+        <v>77286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>435016</v>
+      </c>
+      <c r="G13" s="4">
+        <v>600312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>